--- a/Data/Input/Forms_Config_New.xlsx
+++ b/Data/Input/Forms_Config_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://processx-my.sharepoint.com/personal/px_dev_process-x_com_au/Documents/Documents/UiPath/LeeCare_Transformer/Data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4398" documentId="8_{A5F13F8A-1F16-425B-923E-5FA5E21FB236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8C8BC18-A026-40B9-BE95-66486AC0977E}"/>
+  <xr:revisionPtr revIDLastSave="4400" documentId="8_{A5F13F8A-1F16-425B-923E-5FA5E21FB236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{300AD650-D59B-4F6D-81EA-E88912861BBC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="817" firstSheet="4" activeTab="8" xr2:uid="{F9D9DC62-4E93-4C66-86C7-D8BE7A63C4A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="817" firstSheet="21" activeTab="24" xr2:uid="{F9D9DC62-4E93-4C66-86C7-D8BE7A63C4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Advanced Health Care Directives" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="SkinAssessment" sheetId="5" r:id="rId12"/>
     <sheet name="Dignity of Risk" sheetId="6" r:id="rId13"/>
     <sheet name="Restrictive Practices" sheetId="7" r:id="rId14"/>
-    <sheet name="SleepAssessment" sheetId="3" r:id="rId15"/>
+    <sheet name="Sleep Evaluation &amp; Plan" sheetId="3" r:id="rId15"/>
     <sheet name="Functional Assessment" sheetId="11" r:id="rId16"/>
     <sheet name="Pain Assessment" sheetId="23" r:id="rId17"/>
     <sheet name="Oral&amp;Dental Assessment" sheetId="24" r:id="rId18"/>
@@ -37,12 +37,12 @@
     <sheet name="Wound &amp; Skin Management Plan" sheetId="28" r:id="rId22"/>
     <sheet name="Physiotherapy Assessment" sheetId="29" r:id="rId23"/>
     <sheet name="Speech Pathology Assessment" sheetId="30" r:id="rId24"/>
-    <sheet name="Complex &amp; Chronic Care" sheetId="31" r:id="rId25"/>
+    <sheet name="Complex&amp;Chronic Care" sheetId="31" r:id="rId25"/>
     <sheet name="Social&amp;Leisure Profile" sheetId="32" r:id="rId26"/>
     <sheet name="CSDD (2)" sheetId="33" r:id="rId27"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'Complex &amp; Chronic Care'!$A$1:$E$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'Complex&amp;Chronic Care'!$A$1:$E$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CSDD!$A$1:$E$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -7717,7 +7717,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16608,8 +16608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D46CC9-4542-43AA-88AA-9F0D32A6F22F}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25391,7 +25391,7 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
